--- a/Documentation/Scrum Artifacts/Product Backlog.xlsx
+++ b/Documentation/Scrum Artifacts/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -85,27 +85,27 @@
     <t>A menu allowing the player to select the specific attack their progmon will use when choosing to fight. 4 attack options.</t>
   </si>
   <si>
+    <t>"Bag" Option Item Selection</t>
+  </si>
+  <si>
+    <t>A menu allowing the player to select an item they wish to use when choosing to open their bag.</t>
+  </si>
+  <si>
+    <t>Additional Item Options</t>
+  </si>
+  <si>
+    <t>More items to select from. (e.g. progmon reviver)</t>
+  </si>
+  <si>
+    <t>"Progmon" Option Implementation</t>
+  </si>
+  <si>
+    <t>A menu allowing the player to switch the progmon they are using to battle.</t>
+  </si>
+  <si>
     <t>3 hours</t>
   </si>
   <si>
-    <t>"Bag" Option Item Selection</t>
-  </si>
-  <si>
-    <t>A menu allowing the player to select an item they wish to use when choosing to open their bag.</t>
-  </si>
-  <si>
-    <t>Additional Item Options</t>
-  </si>
-  <si>
-    <t>More items to select from. (e.g. progmon reviver)</t>
-  </si>
-  <si>
-    <t>"Progmon" Option Implementation</t>
-  </si>
-  <si>
-    <t>A menu allowing the player to switch the progmon they are using to battle.</t>
-  </si>
-  <si>
     <t>Battle Sound Effects</t>
   </si>
   <si>
@@ -197,13 +197,40 @@
   </si>
   <si>
     <t>Pop-up displaying information about the events of the battle. Gives the player information about what attack occurred and whether or not it succeeded.</t>
+  </si>
+  <si>
+    <t>Additional Sound Effects</t>
+  </si>
+  <si>
+    <t>Sounds for game start, game end, progmon selection and swapping, missed attacks, and bag items</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>Post-Battle Menu and Stats</t>
+  </si>
+  <si>
+    <t>A post-battle menu displaying various statistics and offering the option to restart the game</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>The feature is implemented</t>
+  </si>
+  <si>
+    <t>The feature is not implemented</t>
+  </si>
+  <si>
+    <t>The feature is partially implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -216,21 +243,49 @@
     </font>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font/>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,33 +294,61 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
         </patternFill>
       </fill>
       <border/>
@@ -521,7 +604,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -532,40 +615,40 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -576,7 +659,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -587,68 +670,68 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -660,17 +743,17 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -686,46 +769,46 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -741,24 +824,24 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -773,10 +856,77 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A10:C27">
+  <conditionalFormatting sqref="A10:C10">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:C11">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:C12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:C13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:C14">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
